--- a/database/calculator.xlsx
+++ b/database/calculator.xlsx
@@ -209,15 +209,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +515,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,18 +527,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -633,12 +633,12 @@
     <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2">
         <f>B4*B7/100/12*(B6-B11)</f>
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
@@ -646,25 +646,25 @@
     <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2">
         <f>B4*B7/100/12*6</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f>B6-14</f>
-        <v>46</v>
-      </c>
-      <c r="D11" s="10" t="s">
+        <f>B6-0</f>
+        <v>60</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2">
@@ -675,14 +675,14 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <f>(B6-B11)*B17</f>
-        <v>763</v>
-      </c>
-      <c r="D12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="4">
@@ -693,45 +693,45 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4">
         <f>B16-B12</f>
-        <v>2507</v>
-      </c>
-      <c r="D13" s="10" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4">
         <f>E16-E12</f>
-        <v>5354</v>
+        <v>5525</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="4">
         <v>50</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="4">
         <v>50</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -741,35 +741,35 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4">
         <f>(B4*B7/100)*(60/12)+B4+B14+B15</f>
-        <v>3270</v>
-      </c>
-      <c r="D16" s="10" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="4">
         <f>(E4*E7/100)+E4+E14+E15-E9+E10</f>
-        <v>5354</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="5">
         <f>B16/B6</f>
-        <v>54.5</v>
-      </c>
-      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="5">
         <f>E16/E6</f>
-        <v>89.233333333333334</v>
+        <v>92.083333333333329</v>
       </c>
     </row>
   </sheetData>
